--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cdh1-Ptprm.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cdh1-Ptprm.xlsx
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.09886600000000001</v>
+        <v>0.002166666666666667</v>
       </c>
       <c r="H2">
-        <v>0.296598</v>
+        <v>0.0065</v>
       </c>
       <c r="I2">
-        <v>0.3026185969870576</v>
+        <v>0.004890446475191893</v>
       </c>
       <c r="J2">
-        <v>0.3026185969870576</v>
+        <v>0.004890446475191893</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>69.14491266666666</v>
+        <v>62.25498566666667</v>
       </c>
       <c r="N2">
-        <v>207.434738</v>
+        <v>186.764957</v>
       </c>
       <c r="O2">
-        <v>0.8044999916189327</v>
+        <v>0.7607543248383142</v>
       </c>
       <c r="P2">
-        <v>0.8044999916189327</v>
+        <v>0.7607543248383141</v>
       </c>
       <c r="Q2">
-        <v>6.836080935702666</v>
+        <v>0.1348858022777778</v>
       </c>
       <c r="R2">
-        <v>61.524728421324</v>
+        <v>1.2139722205</v>
       </c>
       <c r="S2">
-        <v>0.243456658739821</v>
+        <v>0.003720428306392522</v>
       </c>
       <c r="T2">
-        <v>0.243456658739821</v>
+        <v>0.003720428306392522</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.09886600000000001</v>
+        <v>0.002166666666666667</v>
       </c>
       <c r="H3">
-        <v>0.296598</v>
+        <v>0.0065</v>
       </c>
       <c r="I3">
-        <v>0.3026185969870576</v>
+        <v>0.004890446475191893</v>
       </c>
       <c r="J3">
-        <v>0.3026185969870576</v>
+        <v>0.004890446475191893</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>41.283307</v>
       </c>
       <c r="O3">
-        <v>0.1601102132445234</v>
+        <v>0.1681603168407971</v>
       </c>
       <c r="P3">
-        <v>0.1601102132445233</v>
+        <v>0.1681603168407971</v>
       </c>
       <c r="Q3">
-        <v>1.360505143287333</v>
+        <v>0.02981572172222222</v>
       </c>
       <c r="R3">
-        <v>12.244546289586</v>
+        <v>0.2683414955</v>
       </c>
       <c r="S3">
-        <v>0.04845232809535627</v>
+        <v>0.0008223790287612281</v>
       </c>
       <c r="T3">
-        <v>0.04845232809535626</v>
+        <v>0.000822379028761228</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.09886600000000001</v>
+        <v>0.002166666666666667</v>
       </c>
       <c r="H4">
-        <v>0.296598</v>
+        <v>0.0065</v>
       </c>
       <c r="I4">
-        <v>0.3026185969870576</v>
+        <v>0.004890446475191893</v>
       </c>
       <c r="J4">
-        <v>0.3026185969870576</v>
+        <v>0.004890446475191893</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.041671</v>
+        <v>5.817144666666667</v>
       </c>
       <c r="N4">
-        <v>9.125013000000001</v>
+        <v>17.451434</v>
       </c>
       <c r="O4">
-        <v>0.03538979513654388</v>
+        <v>0.07108535832088886</v>
       </c>
       <c r="P4">
-        <v>0.03538979513654388</v>
+        <v>0.07108535832088884</v>
       </c>
       <c r="Q4">
-        <v>0.3007178450860001</v>
+        <v>0.01260381344444444</v>
       </c>
       <c r="R4">
-        <v>2.706460605774001</v>
+        <v>0.113434321</v>
       </c>
       <c r="S4">
-        <v>0.0107096101518803</v>
+        <v>0.0003476391400381436</v>
       </c>
       <c r="T4">
-        <v>0.0107096101518803</v>
+        <v>0.0003476391400381436</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2278356666666667</v>
+        <v>0.440874</v>
       </c>
       <c r="H5">
-        <v>0.683507</v>
+        <v>1.322622</v>
       </c>
       <c r="I5">
-        <v>0.6973814030129425</v>
+        <v>0.9951095535248081</v>
       </c>
       <c r="J5">
-        <v>0.6973814030129425</v>
+        <v>0.9951095535248081</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>69.14491266666666</v>
+        <v>62.25498566666667</v>
       </c>
       <c r="N5">
-        <v>207.434738</v>
+        <v>186.764957</v>
       </c>
       <c r="O5">
-        <v>0.8044999916189327</v>
+        <v>0.7607543248383142</v>
       </c>
       <c r="P5">
-        <v>0.8044999916189327</v>
+        <v>0.7607543248383141</v>
       </c>
       <c r="Q5">
-        <v>15.75367727401844</v>
+        <v>27.446604550806</v>
       </c>
       <c r="R5">
-        <v>141.783095466166</v>
+        <v>247.019440957254</v>
       </c>
       <c r="S5">
-        <v>0.5610433328791118</v>
+        <v>0.7570338965319217</v>
       </c>
       <c r="T5">
-        <v>0.5610433328791118</v>
+        <v>0.7570338965319215</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2278356666666667</v>
+        <v>0.440874</v>
       </c>
       <c r="H6">
-        <v>0.683507</v>
+        <v>1.322622</v>
       </c>
       <c r="I6">
-        <v>0.6973814030129425</v>
+        <v>0.9951095535248081</v>
       </c>
       <c r="J6">
-        <v>0.6973814030129425</v>
+        <v>0.9951095535248081</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>41.283307</v>
       </c>
       <c r="O6">
-        <v>0.1601102132445234</v>
+        <v>0.1681603168407971</v>
       </c>
       <c r="P6">
-        <v>0.1601102132445233</v>
+        <v>0.1681603168407971</v>
       </c>
       <c r="Q6">
-        <v>3.135269924183222</v>
+        <v>6.066912230106</v>
       </c>
       <c r="R6">
-        <v>28.217429317649</v>
+        <v>54.602210070954</v>
       </c>
       <c r="S6">
-        <v>0.1116578851491671</v>
+        <v>0.1673379378120359</v>
       </c>
       <c r="T6">
-        <v>0.1116578851491671</v>
+        <v>0.1673379378120358</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.2278356666666667</v>
+        <v>0.440874</v>
       </c>
       <c r="H7">
-        <v>0.683507</v>
+        <v>1.322622</v>
       </c>
       <c r="I7">
-        <v>0.6973814030129425</v>
+        <v>0.9951095535248081</v>
       </c>
       <c r="J7">
-        <v>0.6973814030129425</v>
+        <v>0.9951095535248081</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.041671</v>
+        <v>5.817144666666667</v>
       </c>
       <c r="N7">
-        <v>9.125013000000001</v>
+        <v>17.451434</v>
       </c>
       <c r="O7">
-        <v>0.03538979513654388</v>
+        <v>0.07108535832088886</v>
       </c>
       <c r="P7">
-        <v>0.03538979513654388</v>
+        <v>0.07108535832088884</v>
       </c>
       <c r="Q7">
-        <v>0.6930011400656667</v>
+        <v>2.564627837772</v>
       </c>
       <c r="R7">
-        <v>6.237010260591</v>
+        <v>23.081650539948</v>
       </c>
       <c r="S7">
-        <v>0.02468018498466358</v>
+        <v>0.07073771918085071</v>
       </c>
       <c r="T7">
-        <v>0.02468018498466358</v>
+        <v>0.0707377191808507</v>
       </c>
     </row>
   </sheetData>
